--- a/public/Daily Report_hyunmyung.kim.xlsx
+++ b/public/Daily Report_hyunmyung.kim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet sheetId="135" name="Daily Report" state="visible" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,19 +25,19 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>ELAC Campus Wide Duct Cleaning</t>
+    <t>Eureka Armory Renovation</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/13/2021</t>
+    <t>08/11/2022</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>4500289944</t>
+    <t>46302</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -52,19 +52,13 @@
     <t xml:space="preserve">START TIME </t>
   </si>
   <si>
-    <t>09:32</t>
+    <t/>
   </si>
   <si>
     <t>WEATHER</t>
   </si>
   <si>
-    <t>Snowy</t>
-  </si>
-  <si>
     <t xml:space="preserve">END TIME </t>
-  </si>
-  <si>
-    <t>09:49</t>
   </si>
   <si>
     <t>CONTRACTOR</t>
@@ -89,13 +83,10 @@
 /Day</t>
   </si>
   <si>
-    <t/>
+    <t>test</t>
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>TESTS &amp; INSPECTIONS</t>
@@ -114,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm AM/PM;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -131,19 +122,16 @@
     <font>
       <b/>
       <family val="2"/>
-      <sz val="12"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <family val="2"/>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <scheme val="minor"/>
+      <sz val="20"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <family val="2"/>
+      <scheme val="minor"/>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -480,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -495,157 +483,166 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -669,12 +666,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1213908" cy="352425"/>
+    <xdr:ext cx="1476375" cy="428625"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Picture 1">
@@ -1036,12 +1033,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
@@ -1086,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="12">
-        <v>6300</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1110,294 +1107,283 @@
         <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
+    </row>
+    <row r="7" ht="19.5" customHeight="1" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="D7" s="26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" ht="36.75" customHeight="1" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="B8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="34"/>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="34"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="15" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" ht="24.75" customHeight="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
+        <f>SUM(C8:C15)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="30">
-        <v>0</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="21" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="34">
-        <v>0</v>
-      </c>
-      <c r="D9" s="35">
-        <v>0</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" ht="24.75" customHeight="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="M16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="M16" s="45"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
     </row>
     <row r="17" ht="23.25" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
+      <c r="A17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
+      <c r="A18" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
     </row>
     <row r="22" ht="23.25" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
+      <c r="A22" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
+      <c r="A23" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
     </row>
     <row r="27" ht="23.25" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
+      <c r="A27" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
+      <c r="A28" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1406,7 +1392,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1415,7 +1401,7 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1424,7 +1410,7 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1433,7 +1419,7 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1442,7 +1428,7 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>

--- a/public/Daily Report_hyunmyung.kim.xlsx
+++ b/public/Daily Report_hyunmyung.kim.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,19 +25,19 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Eureka Armory Renovation</t>
+    <t>Office Yard</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/11/2022</t>
+    <t>08/17/2022</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>46302</t>
+    <t>123</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -81,9 +81,6 @@
   <si>
     <t xml:space="preserve">HOURS
 /Day</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -1083,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="12">
-        <v>5966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1149,24 +1146,12 @@
       <c r="F7" s="25"/>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="30">
-        <v>0</v>
-      </c>
-      <c r="D8" s="31">
-        <v>0</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" ht="19.5" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
@@ -1227,7 +1212,7 @@
     </row>
     <row r="16" ht="24.75" customHeight="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="41">
@@ -1243,7 +1228,7 @@
     </row>
     <row r="17" ht="23.25" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -1290,7 +1275,7 @@
     </row>
     <row r="22" ht="23.25" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
@@ -1336,7 +1321,7 @@
     </row>
     <row r="27" ht="23.25" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>

--- a/public/Daily Report_hyunmyung.kim.xlsx
+++ b/public/Daily Report_hyunmyung.kim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet sheetId="135" name="Daily Report" state="visible" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,19 +25,19 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Office Yard</t>
+    <t>Test Name</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/17/2022</t>
+    <t>08/23/2022</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>123</t>
+    <t>9999999999</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -83,7 +83,13 @@
 /Day</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>TESTS &amp; INSPECTIONS</t>
@@ -102,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm AM/PM;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -119,16 +125,19 @@
     <font>
       <b/>
       <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="20"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <family val="2"/>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <family val="2"/>
-      <scheme val="minor"/>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -465,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -480,166 +489,157 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -663,12 +663,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1476375" cy="428625"/>
+    <xdr:ext cx="1213908" cy="352425"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Picture 1">
@@ -1030,12 +1030,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
@@ -1080,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="12">
-        <v>1</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1119,256 +1119,267 @@
       <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+    <row r="7" ht="36.75" customHeight="1" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="34"/>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="34"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="33"/>
+      <c r="L9" s="37"/>
+    </row>
+    <row r="10" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" ht="21" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" ht="24.75" customHeight="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
-        <f>SUM(C8:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="M16" s="45"/>
+      <c r="A16" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
     </row>
     <row r="17" ht="23.25" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
+      <c r="A17" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" ht="23.25" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
+      <c r="A22" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" ht="23.25" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
+      <c r="A27" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1377,7 +1388,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1386,7 +1397,7 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1395,7 +1406,7 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1404,7 +1415,7 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1413,7 +1424,7 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
